--- a/investimentos.xlsx
+++ b/investimentos.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2d49e524563e047/Desktop/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{0A8682CE-98DC-41E2-8B83-F276787FDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3651A7C4-D27B-43C8-B11F-91591EDC2AE9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{0A8682CE-98DC-41E2-8B83-F276787FDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D315F34F-3105-4725-8DB4-2DD394B3C3D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="27" xr2:uid="{EEE64C6D-1B77-47CD-BA2A-CE95D904609E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="175" xr2:uid="{EEE64C6D-1B77-47CD-BA2A-CE95D904609E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="APORTE">Planilha1!$D$12</definedName>
-    <definedName name="PATRIMONIO">Planilha1!$D$15</definedName>
-    <definedName name="QTD_ANO">Planilha1!$D$13</definedName>
-    <definedName name="qtd_anos">Planilha1!$D$13</definedName>
-    <definedName name="RENDIMENTO">Planilha1!$D$8</definedName>
-    <definedName name="SALARIO">Planilha1!$D$7</definedName>
-    <definedName name="SUGESTAO">Planilha1!$D$9</definedName>
-    <definedName name="TAXA_MENSAL">Planilha1!$D$14</definedName>
-    <definedName name="VALOR_INVESTIDO">Planilha1!$C$27</definedName>
+    <definedName name="APORTE">Planilha1!$H$9</definedName>
+    <definedName name="PATRIMONIO">Planilha1!$H$12</definedName>
+    <definedName name="QTD_ANO">Planilha1!$H$10</definedName>
+    <definedName name="qtd_anos">Planilha1!$H$10</definedName>
+    <definedName name="RENDIMENTO">Planilha1!$D$10</definedName>
+    <definedName name="SALARIO">Planilha1!$D$9</definedName>
+    <definedName name="SUGESTAO">Planilha1!$D$11</definedName>
+    <definedName name="TAXA_MENSAL">Planilha1!$H$11</definedName>
+    <definedName name="VALOR_INVESTIDO">Planilha1!$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Quanto investir por mês?</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>COHEL INVEST</t>
+  </si>
+  <si>
+    <t>Use o configurações para verificar a sugestão de investimento</t>
+  </si>
+  <si>
+    <t>Quanto consegue investir mensalmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possiveis cenários com previsão de alguns anos investimente mensalmente </t>
+  </si>
+  <si>
+    <t>perfis de investimento e susgestão (troque o perfil)</t>
   </si>
 </sst>
 </file>
@@ -388,7 +400,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,15 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -426,7 +429,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,7 +444,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,7 +459,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,18 +477,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,7 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,12 +494,6 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,44 +512,77 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -887,387 +905,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D802B041-21F8-4074-9175-C401F1EA2838}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" hidden="1"/>
-    <col min="7" max="7" width="18.140625" hidden="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="42" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="F8" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="76"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="40">
+      <c r="C9" s="62"/>
+      <c r="D9" s="37">
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="F9" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="41">
+      <c r="C10" s="62"/>
+      <c r="D10" s="38">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="54" t="s">
+      <c r="F10" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57">
-        <f>D7*30%</f>
+      <c r="C11" s="68"/>
+      <c r="D11" s="48">
+        <f>D9*30%</f>
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="42"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="F11" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3">
+      <c r="G11" s="62"/>
+      <c r="H11" s="3">
         <f>RENDIMENTO</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
+      <c r="F12" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="53">
+      <c r="G12" s="64"/>
+      <c r="H12" s="46">
         <f>FV(TAXA_MENSAL,QTD_ANO*12,APORTE*-1)</f>
         <v>61252.252392306844</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="56">
-        <f>PATRIMONIO*$D$8</f>
+      <c r="G13" s="66"/>
+      <c r="H13" s="47">
+        <f>PATRIMONIO*$D$10</f>
         <v>612.52252392306843</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="F16" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="46" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="72" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="F17" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="60"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="59">
-        <f>FV($D$14,$A23*12,APORTE*-1)</f>
+      <c r="C18" s="50">
+        <f>FV($H$11,$A22*12,APORTE*-1)</f>
         <v>9511.8772598977321</v>
       </c>
-      <c r="D19" s="53">
-        <f>C19*RENDIMENTO</f>
+      <c r="D18" s="46">
+        <f t="shared" ref="D18:D23" si="0">C18*RENDIMENTO</f>
         <v>95.118772598977316</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="59">
-        <f>FV($D$14,$A24*12,APORTE*-1)</f>
-        <v>20230.098639893622</v>
-      </c>
-      <c r="D20" s="53">
-        <f>C20*RENDIMENTO</f>
-        <v>202.30098639893623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="59">
-        <f>FV($D$14,$A25*12,APORTE*-1)</f>
-        <v>61252.252392306844</v>
-      </c>
-      <c r="D21" s="53">
-        <f>C21*RENDIMENTO</f>
-        <v>612.52252392306843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="59">
-        <f>FV($D$14,$A26*12,APORTE*-1)</f>
-        <v>172529.01709302524</v>
-      </c>
-      <c r="D22" s="53">
-        <f>C22*RENDIMENTO</f>
-        <v>1725.2901709302523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="59">
-        <f>FV($D$14,$A27*12,APORTE*-1)</f>
-        <v>741941.52404052229</v>
-      </c>
-      <c r="D23" s="53">
-        <f>C23*RENDIMENTO</f>
-        <v>7419.4152404052229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="61">
-        <f>FV($D$14,$A28*12,APORTE*-1)</f>
-        <v>2621223.0995763796</v>
-      </c>
-      <c r="D24" s="56">
-        <f>C24*RENDIMENTO</f>
-        <v>26212.230995763795</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>10</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="68"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>20</v>
-      </c>
-      <c r="B27" s="47" t="s">
+      <c r="F18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="48">
+      <c r="G18" s="41">
         <f>SUGESTAO</f>
         <v>900</v>
       </c>
-      <c r="D27" s="49"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="50">
+        <f>FV($H$11,$A23*12,APORTE*-1)</f>
+        <v>20230.098639893622</v>
+      </c>
+      <c r="D19" s="46">
+        <f t="shared" si="0"/>
+        <v>202.30098639893623</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="50">
+        <f>FV($H$11,$A24*12,APORTE*-1)</f>
+        <v>61252.252392306844</v>
+      </c>
+      <c r="D20" s="46">
+        <f t="shared" si="0"/>
+        <v>612.52252392306843</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="54">
+        <f>VLOOKUP(($G$17&amp;"-"&amp;F20),Planilha2!A:D,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" ref="H20:H25" si="1">VALOR_INVESTIDO*G20</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="50">
+        <f>FV($H$11,$A25*12,APORTE*-1)</f>
+        <v>172529.01709302524</v>
+      </c>
+      <c r="D21" s="46">
+        <f t="shared" si="0"/>
+        <v>1725.2901709302523</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="54">
+        <f>VLOOKUP(($G$17&amp;"-"&amp;F21),Planilha2!A:D,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="50">
+        <f>FV($H$11,$A26*12,APORTE*-1)</f>
+        <v>741941.52404052229</v>
+      </c>
+      <c r="D22" s="46">
+        <f t="shared" si="0"/>
+        <v>7419.4152404052229</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="54">
+        <f>VLOOKUP(($G$17&amp;"-"&amp;F22),Planilha2!A:D,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="46">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="52">
+        <f>FV($H$11,$A27*12,APORTE*-1)</f>
+        <v>2621223.0995763796</v>
+      </c>
+      <c r="D23" s="47">
+        <f t="shared" si="0"/>
+        <v>26212.230995763795</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="54">
+        <f>VLOOKUP(($G$17&amp;"-"&amp;F23),Planilha2!A:D,4,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H23" s="46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="54">
+        <f>VLOOKUP(($G$17&amp;"-"&amp;F24),Planilha2!A:D,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H24" s="46">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="54">
+        <f>VLOOKUP(($G$17&amp;"-"&amp;F25),Planilha2!A:D,4,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H25" s="46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>20</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="55">
+        <f>SUM(H20:H25)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>30</v>
       </c>
-      <c r="B28" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="69">
-        <f>VLOOKUP(($C$26&amp;"-"&amp;B29),Planilha2!A:D,4,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="53">
-        <f>VALOR_INVESTIDO*C29</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="69">
-        <f>VLOOKUP(($C$26&amp;"-"&amp;B30),Planilha2!A:D,4,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="53">
-        <f>VALOR_INVESTIDO*C30</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="69">
-        <f>VLOOKUP(($C$26&amp;"-"&amp;B31),Planilha2!A:D,4,0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D31" s="53">
-        <f>VALOR_INVESTIDO*C31</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="69">
-        <f>VLOOKUP(($C$26&amp;"-"&amp;B32),Planilha2!A:D,4,0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D32" s="53">
-        <f>VALOR_INVESTIDO*C32</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="69">
-        <f>VLOOKUP(($C$26&amp;"-"&amp;B33),Planilha2!A:D,4,0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D33" s="53">
-        <f>VALOR_INVESTIDO*C33</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="69">
-        <f>VLOOKUP(($C$26&amp;"-"&amp;B34),Planilha2!A:D,4,0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D34" s="53">
-        <f>VALOR_INVESTIDO*C34</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72">
-        <f>SUM(D29:D34)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="18">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B1:H4"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26" xr:uid="{97708B65-6026-47BC-8FC5-D54BED151AB9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17" xr:uid="{97708B65-6026-47BC-8FC5-D54BED151AB9}">
       <formula1>"AGRESSIVO,CONSERVADOR,MODERADO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1289,289 +1330,289 @@
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="str">
+      <c r="A2" s="10" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v xml:space="preserve">AGRESSIVO-TIJOLO </v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="str">
+      <c r="A3" s="13" t="str">
         <f t="shared" ref="A3:A19" si="0">B3&amp;"-"&amp;C3</f>
         <v>AGRESSIVO-PAPEL</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="str">
+      <c r="A4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AGRESSIVO-HIBRIDO</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="str">
+      <c r="A5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AGRESSIVO-FOFs</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="str">
+      <c r="A6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AGRESSIVO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="str">
+      <c r="A7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGRESSIVO-HOTELARIA</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="str">
+      <c r="A8" s="19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">MODERADO-TIJOLO </v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="str">
+      <c r="A9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-PAPEL</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="str">
+      <c r="A10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-HIBRIDO</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="str">
+      <c r="A11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-FOFs</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="str">
+      <c r="A12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="str">
+      <c r="A13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-HOTELARIA</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="str">
+      <c r="A14" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CONSERVADOR-TIJOLO </v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="str">
+      <c r="A15" s="31" t="str">
         <f t="shared" si="0"/>
         <v>CONSERVADOR-PAPEL</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="33">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="str">
+      <c r="A16" s="31" t="str">
         <f t="shared" si="0"/>
         <v>CONSERVADOR-HIBRIDO</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="33">
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="str">
+      <c r="A17" s="31" t="str">
         <f t="shared" si="0"/>
         <v>CONSERVADOR-FOFs</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="33">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="str">
+      <c r="A18" s="31" t="str">
         <f t="shared" si="0"/>
         <v>CONSERVADOR-DESENVOLVIMENTO</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="str">
+      <c r="A19" s="34" t="str">
         <f t="shared" si="0"/>
         <v>CONSERVADOR-HOTELARIA</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
